--- a/test-cases/v0.10.2+/Projektvorgehen [Anforderung].xlsx
+++ b/test-cases/v0.10.2+/Projektvorgehen [Anforderung].xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="18" r:id="rId1"/>
+    <sheet name="(Enumerations)" sheetId="19" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>dcterms:identifier</t>
   </si>
@@ -108,6 +109,12 @@
   </si>
   <si>
     <t>'FiCo',"DMS"</t>
+  </si>
+  <si>
+    <t>3_niedrig</t>
+  </si>
+  <si>
+    <t>Randbedingung</t>
   </si>
 </sst>
 </file>
@@ -515,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -673,18 +680,87 @@
       <c r="E10" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'(Enumerations)'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'(Enumerations)'!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A4">
       <formula1>"1_hoch,2_mittel,3_niedrig"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>"Funktion,Qualität,Randbedingung"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
       <formula1>"Funktion,Qualität,Randbedingung"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>